--- a/code/results_cells/results_cec2017_30.xlsx
+++ b/code/results_cells/results_cec2017_30.xlsx
@@ -582,94 +582,94 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>379428000</v>
+        <v>2683581400</v>
       </c>
       <c r="E2">
-        <v>2723435.64</v>
+        <v>338798788</v>
       </c>
       <c r="F2">
-        <v>6928.633</v>
+        <v>8329.7757</v>
       </c>
       <c r="G2">
-        <v>41.826762</v>
+        <v>179.066669</v>
       </c>
       <c r="H2">
-        <v>33.728517</v>
+        <v>68.853318</v>
       </c>
       <c r="I2">
-        <v>14.559545</v>
+        <v>32.542572</v>
       </c>
       <c r="J2">
-        <v>71.33912300000001</v>
+        <v>137.1995</v>
       </c>
       <c r="K2">
-        <v>38.38777900000001</v>
+        <v>57.683497</v>
       </c>
       <c r="L2">
-        <v>219.33731</v>
+        <v>759.84132</v>
       </c>
       <c r="M2">
-        <v>1010.64768</v>
+        <v>1401.815</v>
       </c>
       <c r="N2">
-        <v>85.43773099999999</v>
+        <v>319.08114</v>
       </c>
       <c r="O2">
-        <v>9388733.800000001</v>
+        <v>41889330</v>
       </c>
       <c r="P2">
-        <v>138516.8</v>
+        <v>97507.726</v>
       </c>
       <c r="Q2">
-        <v>611.82426</v>
+        <v>271.901863</v>
       </c>
       <c r="R2">
-        <v>1070.644829</v>
+        <v>1984.72584</v>
       </c>
       <c r="S2">
-        <v>139.91504</v>
+        <v>233.07129</v>
       </c>
       <c r="T2">
-        <v>61.982065</v>
+        <v>112.128708</v>
       </c>
       <c r="U2">
-        <v>124717.7226</v>
+        <v>366152.637</v>
       </c>
       <c r="V2">
-        <v>1469.23992</v>
+        <v>3264.705779999999</v>
       </c>
       <c r="W2">
-        <v>73.53571700000001</v>
+        <v>112.727933</v>
       </c>
       <c r="X2">
-        <v>121.994379</v>
+        <v>137.86664</v>
       </c>
       <c r="Y2">
-        <v>129.983723</v>
+        <v>241.91256</v>
       </c>
       <c r="Z2">
-        <v>347.04276</v>
+        <v>379.08742</v>
       </c>
       <c r="AA2">
-        <v>239.37895</v>
+        <v>288.42762</v>
       </c>
       <c r="AB2">
-        <v>461.01667</v>
+        <v>565.7984799999999</v>
       </c>
       <c r="AC2">
-        <v>506.03347</v>
+        <v>683.73543</v>
       </c>
       <c r="AD2">
-        <v>413.80386</v>
+        <v>443.9185100000001</v>
       </c>
       <c r="AE2">
-        <v>457.37676</v>
+        <v>619.14964</v>
       </c>
       <c r="AF2">
-        <v>315.7482200000001</v>
+        <v>389.1822</v>
       </c>
       <c r="AG2">
-        <v>331336.535</v>
+        <v>3402270.11</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,94 +683,94 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>14073933900</v>
+        <v>22726758000</v>
       </c>
       <c r="E3">
-        <v>5.59190906915604E+38</v>
+        <v>2.589048491127E+41</v>
       </c>
       <c r="F3">
-        <v>140715.97</v>
+        <v>136770.97</v>
       </c>
       <c r="G3">
-        <v>3052.4805</v>
+        <v>4792.902099999999</v>
       </c>
       <c r="H3">
-        <v>279.51708</v>
+        <v>316.83208</v>
       </c>
       <c r="I3">
-        <v>44.466912</v>
+        <v>58.46535</v>
       </c>
       <c r="J3">
-        <v>640.26555</v>
+        <v>834.48688</v>
       </c>
       <c r="K3">
-        <v>281.84336</v>
+        <v>337.64012</v>
       </c>
       <c r="L3">
-        <v>10039.6762</v>
+        <v>10043.5305</v>
       </c>
       <c r="M3">
-        <v>6428.8568</v>
+        <v>6896.511300000001</v>
       </c>
       <c r="N3">
-        <v>9613.8444</v>
+        <v>9979.824800000002</v>
       </c>
       <c r="O3">
-        <v>2980191100</v>
+        <v>4528878600</v>
       </c>
       <c r="P3">
-        <v>1941144410</v>
+        <v>3259293100</v>
       </c>
       <c r="Q3">
-        <v>8226353.4</v>
+        <v>6870564.4</v>
       </c>
       <c r="R3">
-        <v>648403220</v>
+        <v>941383990</v>
       </c>
       <c r="S3">
-        <v>2667.2724</v>
+        <v>2775.0255</v>
       </c>
       <c r="T3">
-        <v>1276.37026</v>
+        <v>1985.6592</v>
       </c>
       <c r="U3">
-        <v>29870211</v>
+        <v>53252961</v>
       </c>
       <c r="V3">
-        <v>633913150</v>
+        <v>1624912090</v>
       </c>
       <c r="W3">
-        <v>1137.82705</v>
+        <v>1156.84703</v>
       </c>
       <c r="X3">
-        <v>495.8335000000001</v>
+        <v>513.45181</v>
       </c>
       <c r="Y3">
-        <v>3167.1513</v>
+        <v>4145.393</v>
       </c>
       <c r="Z3">
-        <v>731.83888</v>
+        <v>815.38279</v>
       </c>
       <c r="AA3">
-        <v>837.76505</v>
+        <v>908.8729900000001</v>
       </c>
       <c r="AB3">
-        <v>1351.92269</v>
+        <v>2084.7863</v>
       </c>
       <c r="AC3">
-        <v>4414.9109</v>
+        <v>5912.225799999999</v>
       </c>
       <c r="AD3">
-        <v>811.87177</v>
+        <v>925.6546700000001</v>
       </c>
       <c r="AE3">
-        <v>1513.79334</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF3">
-        <v>2612.1033</v>
+        <v>3574.723800000001</v>
       </c>
       <c r="AG3">
-        <v>278453836</v>
+        <v>491328040</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -784,94 +784,94 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>11358412200</v>
+        <v>22726758000</v>
       </c>
       <c r="E4">
-        <v>8.158968846283E+36</v>
+        <v>9.347670911270002E+40</v>
       </c>
       <c r="F4">
-        <v>135477.76</v>
+        <v>136122.83</v>
       </c>
       <c r="G4">
-        <v>2293.3273</v>
+        <v>4463.8603</v>
       </c>
       <c r="H4">
-        <v>261.72629</v>
+        <v>316.83208</v>
       </c>
       <c r="I4">
-        <v>40.456785</v>
+        <v>57.175034</v>
       </c>
       <c r="J4">
-        <v>552.16733</v>
+        <v>830.4396899999999</v>
       </c>
       <c r="K4">
-        <v>266.31788</v>
+        <v>323.57263</v>
       </c>
       <c r="L4">
-        <v>9176.6702</v>
+        <v>10026.8915</v>
       </c>
       <c r="M4">
-        <v>6360.001200000001</v>
+        <v>6858.392600000001</v>
       </c>
       <c r="N4">
-        <v>8547.9987</v>
+        <v>7412.560800000001</v>
       </c>
       <c r="O4">
-        <v>2259287700</v>
+        <v>4528878600</v>
       </c>
       <c r="P4">
-        <v>1900003710</v>
+        <v>3259293100</v>
       </c>
       <c r="Q4">
-        <v>6902241.8</v>
+        <v>4029599.2</v>
       </c>
       <c r="R4">
-        <v>534724656</v>
+        <v>770150720</v>
       </c>
       <c r="S4">
-        <v>2465.448799999999</v>
+        <v>2775.0255</v>
       </c>
       <c r="T4">
-        <v>1232.31126</v>
+        <v>1810.9922</v>
       </c>
       <c r="U4">
-        <v>21947147</v>
+        <v>38407407</v>
       </c>
       <c r="V4">
-        <v>496370370</v>
+        <v>1393504840</v>
       </c>
       <c r="W4">
-        <v>1098.15275</v>
+        <v>1085.14498</v>
       </c>
       <c r="X4">
-        <v>488.34459</v>
+        <v>513.45181</v>
       </c>
       <c r="Y4">
-        <v>2634.0732</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z4">
-        <v>703.1726799999999</v>
+        <v>811.88957</v>
       </c>
       <c r="AA4">
-        <v>825.04036</v>
+        <v>908.78244</v>
       </c>
       <c r="AB4">
-        <v>1305.35257</v>
+        <v>2084.7863</v>
       </c>
       <c r="AC4">
-        <v>3980.4545</v>
+        <v>5912.225799999999</v>
       </c>
       <c r="AD4">
-        <v>758.46294</v>
+        <v>894.1893200000001</v>
       </c>
       <c r="AE4">
-        <v>1482.55144</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF4">
-        <v>2333.4675</v>
+        <v>3428.487500000001</v>
       </c>
       <c r="AG4">
-        <v>195352248</v>
+        <v>459277230</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -885,94 +885,94 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>10445434200</v>
+        <v>22726758000</v>
       </c>
       <c r="E5">
-        <v>1.424325678283E+36</v>
+        <v>3.30776181127E+40</v>
       </c>
       <c r="F5">
-        <v>130033.389</v>
+        <v>132543.88</v>
       </c>
       <c r="G5">
-        <v>1886.9396</v>
+        <v>4365.6477</v>
       </c>
       <c r="H5">
-        <v>260.42479</v>
+        <v>316.83208</v>
       </c>
       <c r="I5">
-        <v>39.08146899999999</v>
+        <v>57.175034</v>
       </c>
       <c r="J5">
-        <v>542.3718</v>
+        <v>826.07454</v>
       </c>
       <c r="K5">
-        <v>256.02984</v>
+        <v>323.57263</v>
       </c>
       <c r="L5">
-        <v>8342.619900000002</v>
+        <v>9787.292799999999</v>
       </c>
       <c r="M5">
-        <v>6319.4572</v>
+        <v>6785.314799999998</v>
       </c>
       <c r="N5">
-        <v>6447.616900000001</v>
+        <v>6403.3982</v>
       </c>
       <c r="O5">
-        <v>1799359300</v>
+        <v>4480753500</v>
       </c>
       <c r="P5">
-        <v>1430815220</v>
+        <v>2927451200</v>
       </c>
       <c r="Q5">
-        <v>4659068.5</v>
+        <v>3895783.4</v>
       </c>
       <c r="R5">
-        <v>395384483</v>
+        <v>744229700</v>
       </c>
       <c r="S5">
-        <v>2452.546</v>
+        <v>2766.3015</v>
       </c>
       <c r="T5">
-        <v>1126.9413</v>
+        <v>1733.8827</v>
       </c>
       <c r="U5">
-        <v>15816375</v>
+        <v>35891617</v>
       </c>
       <c r="V5">
-        <v>318266920</v>
+        <v>1223020840</v>
       </c>
       <c r="W5">
-        <v>1002.35143</v>
+        <v>1052.69448</v>
       </c>
       <c r="X5">
-        <v>472.56313</v>
+        <v>511.52056</v>
       </c>
       <c r="Y5">
-        <v>2127.5519</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z5">
-        <v>694.06891</v>
+        <v>811.88957</v>
       </c>
       <c r="AA5">
-        <v>793.6824300000001</v>
+        <v>896.8193799999999</v>
       </c>
       <c r="AB5">
-        <v>1179.76228</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC5">
-        <v>3863.8804</v>
+        <v>5757.1023</v>
       </c>
       <c r="AD5">
-        <v>732.4749899999999</v>
+        <v>894.1893200000001</v>
       </c>
       <c r="AE5">
-        <v>1439.66864</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF5">
-        <v>2251.0381</v>
+        <v>3059.4431</v>
       </c>
       <c r="AG5">
-        <v>178139808</v>
+        <v>459277230</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,94 +986,94 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>8912550400</v>
+        <v>22726758000</v>
       </c>
       <c r="E6">
-        <v>1.164805541663E+36</v>
+        <v>1.16774646797E+40</v>
       </c>
       <c r="F6">
-        <v>121726.671</v>
+        <v>131236.18</v>
       </c>
       <c r="G6">
-        <v>1567.5891</v>
+        <v>4365.6477</v>
       </c>
       <c r="H6">
-        <v>255.12272</v>
+        <v>316.83208</v>
       </c>
       <c r="I6">
-        <v>36.69857399999999</v>
+        <v>57.175034</v>
       </c>
       <c r="J6">
-        <v>517.8019499999999</v>
+        <v>826.07454</v>
       </c>
       <c r="K6">
-        <v>244.9662</v>
+        <v>323.57263</v>
       </c>
       <c r="L6">
-        <v>7290.2167</v>
+        <v>9787.292799999999</v>
       </c>
       <c r="M6">
-        <v>6241.8492</v>
+        <v>6785.314799999998</v>
       </c>
       <c r="N6">
-        <v>5137.399</v>
+        <v>6354.818799999999</v>
       </c>
       <c r="O6">
-        <v>1559680440</v>
+        <v>4480753500</v>
       </c>
       <c r="P6">
-        <v>1223085940</v>
+        <v>2833702800</v>
       </c>
       <c r="Q6">
-        <v>3903261.8</v>
+        <v>2306303.66</v>
       </c>
       <c r="R6">
-        <v>387816028</v>
+        <v>628496510</v>
       </c>
       <c r="S6">
-        <v>2299.960099999999</v>
+        <v>2766.3015</v>
       </c>
       <c r="T6">
-        <v>1060.2436</v>
+        <v>1664.8769</v>
       </c>
       <c r="U6">
-        <v>13245628.6</v>
+        <v>30123654</v>
       </c>
       <c r="V6">
-        <v>305776020</v>
+        <v>972171520</v>
       </c>
       <c r="W6">
-        <v>900.3461</v>
+        <v>1011.59078</v>
       </c>
       <c r="X6">
-        <v>469.35517</v>
+        <v>511.52056</v>
       </c>
       <c r="Y6">
-        <v>1892.704</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z6">
-        <v>672.8683</v>
+        <v>811.88957</v>
       </c>
       <c r="AA6">
-        <v>784.0726400000001</v>
+        <v>896.8193799999999</v>
       </c>
       <c r="AB6">
-        <v>1084.29414</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC6">
-        <v>3737.7341</v>
+        <v>5757.1023</v>
       </c>
       <c r="AD6">
-        <v>710.80096</v>
+        <v>894.1893200000001</v>
       </c>
       <c r="AE6">
-        <v>1390.39554</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF6">
-        <v>2014.5844</v>
+        <v>3046.2121</v>
       </c>
       <c r="AG6">
-        <v>139904504</v>
+        <v>405980740</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1087,94 +1087,94 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>7754844000</v>
+        <v>22726758000</v>
       </c>
       <c r="E7">
-        <v>9.4055967649E+33</v>
+        <v>9.826423206699999E+39</v>
       </c>
       <c r="F7">
-        <v>111439.831</v>
+        <v>126785.11</v>
       </c>
       <c r="G7">
-        <v>1262.05731</v>
+        <v>4365.6477</v>
       </c>
       <c r="H7">
-        <v>243.18788</v>
+        <v>316.83208</v>
       </c>
       <c r="I7">
-        <v>33.59307100000001</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J7">
-        <v>489.14369</v>
+        <v>796.46083</v>
       </c>
       <c r="K7">
-        <v>238.4597099999999</v>
+        <v>316.72564</v>
       </c>
       <c r="L7">
-        <v>6174.268700000001</v>
+        <v>9787.292799999999</v>
       </c>
       <c r="M7">
-        <v>6079.1126</v>
+        <v>6626.327699999999</v>
       </c>
       <c r="N7">
-        <v>4018.7177</v>
+        <v>6269.224499999999</v>
       </c>
       <c r="O7">
-        <v>1199982340</v>
+        <v>3888985200</v>
       </c>
       <c r="P7">
-        <v>932328590</v>
+        <v>2715048900</v>
       </c>
       <c r="Q7">
-        <v>2412360.53</v>
+        <v>1871624.56</v>
       </c>
       <c r="R7">
-        <v>261486788</v>
+        <v>439230970</v>
       </c>
       <c r="S7">
-        <v>2156.1942</v>
+        <v>2742.7446</v>
       </c>
       <c r="T7">
-        <v>932.60208</v>
+        <v>1582.7114</v>
       </c>
       <c r="U7">
-        <v>7742947.7</v>
+        <v>23547869</v>
       </c>
       <c r="V7">
-        <v>255733120</v>
+        <v>806487140</v>
       </c>
       <c r="W7">
-        <v>851.3546399999999</v>
+        <v>953.0941799999998</v>
       </c>
       <c r="X7">
-        <v>447.17411</v>
+        <v>510.95927</v>
       </c>
       <c r="Y7">
-        <v>1752.2749</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z7">
-        <v>653.93264</v>
+        <v>811.2428200000001</v>
       </c>
       <c r="AA7">
-        <v>753.41032</v>
+        <v>896.8193799999999</v>
       </c>
       <c r="AB7">
-        <v>1058.9216</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC7">
-        <v>3494.5897</v>
+        <v>5733.414</v>
       </c>
       <c r="AD7">
-        <v>684.9988999999999</v>
+        <v>891.62003</v>
       </c>
       <c r="AE7">
-        <v>1246.11494</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF7">
-        <v>1774.8781</v>
+        <v>2870.1182</v>
       </c>
       <c r="AG7">
-        <v>100561464</v>
+        <v>357562330</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1188,94 +1188,94 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>7330082400</v>
+        <v>22309228000</v>
       </c>
       <c r="E8">
-        <v>6.155629256599999E+31</v>
+        <v>1.4151859667E+39</v>
       </c>
       <c r="F8">
-        <v>105175.136</v>
+        <v>120889.395</v>
       </c>
       <c r="G8">
-        <v>1050.67131</v>
+        <v>4365.6477</v>
       </c>
       <c r="H8">
-        <v>233.61385</v>
+        <v>316.56468</v>
       </c>
       <c r="I8">
-        <v>30.759615</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J8">
-        <v>458.94718</v>
+        <v>794.42444</v>
       </c>
       <c r="K8">
-        <v>232.23398</v>
+        <v>315.05693</v>
       </c>
       <c r="L8">
-        <v>4778.8009</v>
+        <v>9681.8878</v>
       </c>
       <c r="M8">
-        <v>5756.054000000001</v>
+        <v>6597.801599999999</v>
       </c>
       <c r="N8">
-        <v>2703.4098</v>
+        <v>5637.937999999999</v>
       </c>
       <c r="O8">
-        <v>1104659900</v>
+        <v>3888985200</v>
       </c>
       <c r="P8">
-        <v>813027550</v>
+        <v>2531232200</v>
       </c>
       <c r="Q8">
-        <v>1575329.22</v>
+        <v>1137296.81</v>
       </c>
       <c r="R8">
-        <v>191420738</v>
+        <v>333812560</v>
       </c>
       <c r="S8">
-        <v>1914.5712</v>
+        <v>2661.0917</v>
       </c>
       <c r="T8">
-        <v>807.52971</v>
+        <v>1424.13358</v>
       </c>
       <c r="U8">
-        <v>5357377</v>
+        <v>16188358.6</v>
       </c>
       <c r="V8">
-        <v>211106502</v>
+        <v>645722950</v>
       </c>
       <c r="W8">
-        <v>790.87998</v>
+        <v>887.0563400000001</v>
       </c>
       <c r="X8">
-        <v>425.2355900000001</v>
+        <v>505.0621</v>
       </c>
       <c r="Y8">
-        <v>1449.1032</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z8">
-        <v>625.75128</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA8">
-        <v>737.27667</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB8">
-        <v>934.88935</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC8">
-        <v>3059.608</v>
+        <v>5694.3966</v>
       </c>
       <c r="AD8">
-        <v>654.51107</v>
+        <v>891.62003</v>
       </c>
       <c r="AE8">
-        <v>1093.05508</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF8">
-        <v>1575.7868</v>
+        <v>2790.7114</v>
       </c>
       <c r="AG8">
-        <v>90112667</v>
+        <v>310095030</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1289,94 +1289,94 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>6804375400</v>
+        <v>22309228000</v>
       </c>
       <c r="E9">
-        <v>2.7763187746E+31</v>
+        <v>1.4151859667E+39</v>
       </c>
       <c r="F9">
-        <v>97984.825</v>
+        <v>120313.285</v>
       </c>
       <c r="G9">
-        <v>980.5823199999999</v>
+        <v>4365.6477</v>
       </c>
       <c r="H9">
-        <v>228.99904</v>
+        <v>316.56468</v>
       </c>
       <c r="I9">
-        <v>29.62644999999999</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J9">
-        <v>458.1823300000001</v>
+        <v>794.42444</v>
       </c>
       <c r="K9">
-        <v>225.32555</v>
+        <v>315.05693</v>
       </c>
       <c r="L9">
-        <v>4600.2031</v>
+        <v>9681.8878</v>
       </c>
       <c r="M9">
-        <v>5679.0044</v>
+        <v>6597.801599999999</v>
       </c>
       <c r="N9">
-        <v>2515.7458</v>
+        <v>5637.937999999999</v>
       </c>
       <c r="O9">
-        <v>942287160</v>
+        <v>3888985200</v>
       </c>
       <c r="P9">
-        <v>606078130</v>
+        <v>2531232200</v>
       </c>
       <c r="Q9">
-        <v>1410597.03</v>
+        <v>788216.97</v>
       </c>
       <c r="R9">
-        <v>157421628</v>
+        <v>302810100</v>
       </c>
       <c r="S9">
-        <v>1871.2614</v>
+        <v>2661.0917</v>
       </c>
       <c r="T9">
-        <v>783.38845</v>
+        <v>1397.06318</v>
       </c>
       <c r="U9">
-        <v>5115926.4</v>
+        <v>14960137.6</v>
       </c>
       <c r="V9">
-        <v>154907276</v>
+        <v>504317410</v>
       </c>
       <c r="W9">
-        <v>773.6531000000001</v>
+        <v>881.02448</v>
       </c>
       <c r="X9">
-        <v>420.8674</v>
+        <v>505.0621</v>
       </c>
       <c r="Y9">
-        <v>1341.9099</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z9">
-        <v>615.93848</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA9">
-        <v>736.95336</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB9">
-        <v>795.90205</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC9">
-        <v>2925.2077</v>
+        <v>5694.3966</v>
       </c>
       <c r="AD9">
-        <v>638.16796</v>
+        <v>891.62003</v>
       </c>
       <c r="AE9">
-        <v>1001.8987</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF9">
-        <v>1522.8699</v>
+        <v>2679.6097</v>
       </c>
       <c r="AG9">
-        <v>66207122</v>
+        <v>291071630</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1390,94 +1390,94 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>6680648100</v>
+        <v>22309228000</v>
       </c>
       <c r="E10">
-        <v>9.859013447E+30</v>
+        <v>1.317356888132E+39</v>
       </c>
       <c r="F10">
-        <v>97112.01999999999</v>
+        <v>117300.865</v>
       </c>
       <c r="G10">
-        <v>980.5823199999999</v>
+        <v>4365.6477</v>
       </c>
       <c r="H10">
-        <v>228.99904</v>
+        <v>316.56468</v>
       </c>
       <c r="I10">
-        <v>29.62644999999999</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J10">
-        <v>452.7257000000001</v>
+        <v>794.42444</v>
       </c>
       <c r="K10">
-        <v>224.51544</v>
+        <v>315.05693</v>
       </c>
       <c r="L10">
-        <v>4185.8966</v>
+        <v>9681.8878</v>
       </c>
       <c r="M10">
-        <v>5614.9012</v>
+        <v>6597.801599999999</v>
       </c>
       <c r="N10">
-        <v>2319.3545</v>
+        <v>5523.913999999999</v>
       </c>
       <c r="O10">
-        <v>882445020</v>
+        <v>3888985200</v>
       </c>
       <c r="P10">
-        <v>546857510</v>
+        <v>2531232200</v>
       </c>
       <c r="Q10">
-        <v>1136353.59</v>
+        <v>677743.2300000001</v>
       </c>
       <c r="R10">
-        <v>119555280</v>
+        <v>263241130</v>
       </c>
       <c r="S10">
-        <v>1821.0115</v>
+        <v>2641.0358</v>
       </c>
       <c r="T10">
-        <v>773.93992</v>
+        <v>1375.50778</v>
       </c>
       <c r="U10">
-        <v>5115926.4</v>
+        <v>14904812.6</v>
       </c>
       <c r="V10">
-        <v>147496856</v>
+        <v>476199650</v>
       </c>
       <c r="W10">
-        <v>741.0267800000001</v>
+        <v>871.69326</v>
       </c>
       <c r="X10">
-        <v>414.8438199999999</v>
+        <v>505.0621</v>
       </c>
       <c r="Y10">
-        <v>1332.497</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z10">
-        <v>614.8878099999999</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA10">
-        <v>734.92426</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB10">
-        <v>795.2409700000001</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC10">
-        <v>2925.2077</v>
+        <v>5694.3966</v>
       </c>
       <c r="AD10">
-        <v>636.4015900000001</v>
+        <v>891.62003</v>
       </c>
       <c r="AE10">
-        <v>1001.8987</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF10">
-        <v>1508.8873</v>
+        <v>2652.0842</v>
       </c>
       <c r="AG10">
-        <v>60583016</v>
+        <v>266253010</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1491,94 +1491,94 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>6680648100</v>
+        <v>22309228000</v>
       </c>
       <c r="E11">
-        <v>9.506985417999999E+30</v>
+        <v>1.290044408132E+39</v>
       </c>
       <c r="F11">
-        <v>97112.01999999999</v>
+        <v>116306.325</v>
       </c>
       <c r="G11">
-        <v>904.4345299999999</v>
+        <v>4365.6477</v>
       </c>
       <c r="H11">
-        <v>228.70825</v>
+        <v>316.56468</v>
       </c>
       <c r="I11">
-        <v>29.62644999999999</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J11">
-        <v>441.7319799999999</v>
+        <v>794.42444</v>
       </c>
       <c r="K11">
-        <v>220.58789</v>
+        <v>315.05693</v>
       </c>
       <c r="L11">
-        <v>4185.8966</v>
+        <v>9681.8878</v>
       </c>
       <c r="M11">
-        <v>5600.6379</v>
+        <v>6597.801599999999</v>
       </c>
       <c r="N11">
-        <v>2153.3824</v>
+        <v>5523.913999999999</v>
       </c>
       <c r="O11">
-        <v>809544810</v>
+        <v>3888985200</v>
       </c>
       <c r="P11">
-        <v>546324750</v>
+        <v>2335727200</v>
       </c>
       <c r="Q11">
-        <v>1049971.89</v>
+        <v>579334.4300000001</v>
       </c>
       <c r="R11">
-        <v>114893075</v>
+        <v>253784950</v>
       </c>
       <c r="S11">
-        <v>1816.4106</v>
+        <v>2641.0358</v>
       </c>
       <c r="T11">
-        <v>755.7504799999999</v>
+        <v>1375.50778</v>
       </c>
       <c r="U11">
-        <v>4425983.7</v>
+        <v>13230601.7</v>
       </c>
       <c r="V11">
-        <v>147496856</v>
+        <v>476199650</v>
       </c>
       <c r="W11">
-        <v>722.6044100000001</v>
+        <v>867.8556500000001</v>
       </c>
       <c r="X11">
-        <v>411.613</v>
+        <v>503.5853</v>
       </c>
       <c r="Y11">
-        <v>1332.497</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z11">
-        <v>608.72587</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA11">
-        <v>730.4008299999999</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB11">
-        <v>787.8148800000001</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC11">
-        <v>2817.3538</v>
+        <v>5694.3966</v>
       </c>
       <c r="AD11">
-        <v>633.81398</v>
+        <v>891.62003</v>
       </c>
       <c r="AE11">
-        <v>1001.8987</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF11">
-        <v>1453.5745</v>
+        <v>2631.0792</v>
       </c>
       <c r="AG11">
-        <v>60583016</v>
+        <v>266253010</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1592,94 +1592,94 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>5959218100</v>
+        <v>22309228000</v>
       </c>
       <c r="E12">
-        <v>2.644329318E+30</v>
+        <v>1.290044408132E+39</v>
       </c>
       <c r="F12">
-        <v>97112.01999999999</v>
+        <v>113295.434</v>
       </c>
       <c r="G12">
-        <v>899.7099199999999</v>
+        <v>4365.6477</v>
       </c>
       <c r="H12">
-        <v>224.72706</v>
+        <v>316.56468</v>
       </c>
       <c r="I12">
-        <v>29.223437</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J12">
-        <v>441.7319799999999</v>
+        <v>794.42444</v>
       </c>
       <c r="K12">
-        <v>218.67671</v>
+        <v>315.05693</v>
       </c>
       <c r="L12">
-        <v>4185.8966</v>
+        <v>9681.8878</v>
       </c>
       <c r="M12">
-        <v>5502.8443</v>
+        <v>6597.801599999999</v>
       </c>
       <c r="N12">
-        <v>2043.445</v>
+        <v>5418.055199999999</v>
       </c>
       <c r="O12">
-        <v>807457550</v>
+        <v>3888985200</v>
       </c>
       <c r="P12">
-        <v>546324750</v>
+        <v>2335727200</v>
       </c>
       <c r="Q12">
-        <v>1012564.6</v>
+        <v>574223.4300000001</v>
       </c>
       <c r="R12">
-        <v>98796848</v>
+        <v>253784950</v>
       </c>
       <c r="S12">
-        <v>1799.3804</v>
+        <v>2641.0358</v>
       </c>
       <c r="T12">
-        <v>698.67341</v>
+        <v>1349.27368</v>
       </c>
       <c r="U12">
-        <v>3895058.2</v>
+        <v>13230601.7</v>
       </c>
       <c r="V12">
-        <v>134725566</v>
+        <v>424075380</v>
       </c>
       <c r="W12">
-        <v>722.6044100000001</v>
+        <v>862.0026600000001</v>
       </c>
       <c r="X12">
-        <v>409.08032</v>
+        <v>503.5853</v>
       </c>
       <c r="Y12">
-        <v>1327.034</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z12">
-        <v>608.4056800000001</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA12">
-        <v>730.4008299999999</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB12">
-        <v>786.13686</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC12">
-        <v>2791.5978</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD12">
-        <v>628.91953</v>
+        <v>891.62003</v>
       </c>
       <c r="AE12">
-        <v>1001.8987</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF12">
-        <v>1445.6281</v>
+        <v>2631.0792</v>
       </c>
       <c r="AG12">
-        <v>51176080</v>
+        <v>251396950</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1693,94 +1693,94 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>5959218100</v>
+        <v>22309228000</v>
       </c>
       <c r="E13">
-        <v>2.052384828E+30</v>
+        <v>6.72877208132E+38</v>
       </c>
       <c r="F13">
-        <v>96947.23300000001</v>
+        <v>111518.974</v>
       </c>
       <c r="G13">
-        <v>868.27537</v>
+        <v>4365.6477</v>
       </c>
       <c r="H13">
-        <v>222.22762</v>
+        <v>316.56468</v>
       </c>
       <c r="I13">
-        <v>28.201946</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J13">
-        <v>440.01515</v>
+        <v>794.42444</v>
       </c>
       <c r="K13">
-        <v>218.22147</v>
+        <v>315.05693</v>
       </c>
       <c r="L13">
-        <v>4185.8966</v>
+        <v>9681.8878</v>
       </c>
       <c r="M13">
-        <v>5495.404</v>
+        <v>6572.0057</v>
       </c>
       <c r="N13">
-        <v>1994.5779</v>
+        <v>5213.629599999999</v>
       </c>
       <c r="O13">
-        <v>807457550</v>
+        <v>3888985200</v>
       </c>
       <c r="P13">
-        <v>508671260</v>
+        <v>2236673300</v>
       </c>
       <c r="Q13">
-        <v>912035.6</v>
+        <v>574223.4300000001</v>
       </c>
       <c r="R13">
-        <v>82746108</v>
+        <v>200748370</v>
       </c>
       <c r="S13">
-        <v>1799.3804</v>
+        <v>2641.0358</v>
       </c>
       <c r="T13">
-        <v>688.34991</v>
+        <v>1349.27368</v>
       </c>
       <c r="U13">
-        <v>3661911</v>
+        <v>12947086.4</v>
       </c>
       <c r="V13">
-        <v>107177766</v>
+        <v>358322120</v>
       </c>
       <c r="W13">
-        <v>710.2680800000001</v>
+        <v>859.35274</v>
       </c>
       <c r="X13">
-        <v>407.54116</v>
+        <v>503.5853</v>
       </c>
       <c r="Y13">
-        <v>1320.9753</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z13">
-        <v>598.21013</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA13">
-        <v>727.8877600000001</v>
+        <v>893.7869999999999</v>
       </c>
       <c r="AB13">
-        <v>786.13686</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC13">
-        <v>2761.8341</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD13">
-        <v>622.02575</v>
+        <v>891.62003</v>
       </c>
       <c r="AE13">
-        <v>957.6757399999999</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF13">
-        <v>1429.7777</v>
+        <v>2611.9028</v>
       </c>
       <c r="AG13">
-        <v>46175556</v>
+        <v>251396950</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>5959218100</v>
+        <v>22309228000</v>
       </c>
       <c r="E14">
-        <v>1.912342616E+30</v>
+        <v>3.53961263132E+38</v>
       </c>
       <c r="F14">
-        <v>96947.23300000001</v>
+        <v>111109.504</v>
       </c>
       <c r="G14">
-        <v>808.3402699999999</v>
+        <v>4349.4019</v>
       </c>
       <c r="H14">
-        <v>222.22762</v>
+        <v>314.11058</v>
       </c>
       <c r="I14">
-        <v>28.092062</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J14">
-        <v>428.47081</v>
+        <v>794.42444</v>
       </c>
       <c r="K14">
-        <v>216.44688</v>
+        <v>314.27459</v>
       </c>
       <c r="L14">
-        <v>3800.5168</v>
+        <v>9681.8878</v>
       </c>
       <c r="M14">
-        <v>5495.404</v>
+        <v>6569.285400000001</v>
       </c>
       <c r="N14">
-        <v>1955.7174</v>
+        <v>5113.8669</v>
       </c>
       <c r="O14">
-        <v>709612060</v>
+        <v>3888985200</v>
       </c>
       <c r="P14">
-        <v>500878910</v>
+        <v>2236673300</v>
       </c>
       <c r="Q14">
-        <v>889267.1</v>
+        <v>485235.59</v>
       </c>
       <c r="R14">
-        <v>81894838</v>
+        <v>200748370</v>
       </c>
       <c r="S14">
-        <v>1792.2171</v>
+        <v>2629.1417</v>
       </c>
       <c r="T14">
-        <v>650.7563499999999</v>
+        <v>1343.31608</v>
       </c>
       <c r="U14">
-        <v>3661700.4</v>
+        <v>11787996.3</v>
       </c>
       <c r="V14">
-        <v>107177766</v>
+        <v>319236960</v>
       </c>
       <c r="W14">
-        <v>710.2680800000001</v>
+        <v>857.39771</v>
       </c>
       <c r="X14">
-        <v>382.50976</v>
+        <v>503.5853</v>
       </c>
       <c r="Y14">
-        <v>1260.00077</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z14">
-        <v>594.3809800000001</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA14">
-        <v>727.6058700000001</v>
+        <v>891.4318999999999</v>
       </c>
       <c r="AB14">
-        <v>771.4778200000001</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC14">
-        <v>2700.6893</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD14">
-        <v>620.06148</v>
+        <v>891.62003</v>
       </c>
       <c r="AE14">
-        <v>957.6757399999999</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF14">
-        <v>1385.2456</v>
+        <v>2538.1908</v>
       </c>
       <c r="AG14">
-        <v>44584078</v>
+        <v>238930480</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>5845560300</v>
+        <v>22309228000</v>
       </c>
       <c r="E15">
-        <v>1.912342616E+30</v>
+        <v>3.53961263132E+38</v>
       </c>
       <c r="F15">
-        <v>93747.50799999999</v>
+        <v>111109.504</v>
       </c>
       <c r="G15">
-        <v>798.6364599999999</v>
+        <v>4349.4019</v>
       </c>
       <c r="H15">
-        <v>222.00397</v>
+        <v>314.11058</v>
       </c>
       <c r="I15">
-        <v>27.958204</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J15">
-        <v>427.82096</v>
+        <v>794.42444</v>
       </c>
       <c r="K15">
-        <v>215.46565</v>
+        <v>314.27459</v>
       </c>
       <c r="L15">
-        <v>3666.083100000001</v>
+        <v>9681.8878</v>
       </c>
       <c r="M15">
-        <v>5474.687899999999</v>
+        <v>6569.285400000001</v>
       </c>
       <c r="N15">
-        <v>1921.8373</v>
+        <v>5113.8669</v>
       </c>
       <c r="O15">
-        <v>709612060</v>
+        <v>3888985200</v>
       </c>
       <c r="P15">
-        <v>500878910</v>
+        <v>2236673300</v>
       </c>
       <c r="Q15">
-        <v>797225.24</v>
+        <v>460021.46</v>
       </c>
       <c r="R15">
-        <v>75763799</v>
+        <v>198004640</v>
       </c>
       <c r="S15">
-        <v>1792.2171</v>
+        <v>2629.1417</v>
       </c>
       <c r="T15">
-        <v>649.2629199999999</v>
+        <v>1333.40918</v>
       </c>
       <c r="U15">
-        <v>3661700.4</v>
+        <v>10479541.2</v>
       </c>
       <c r="V15">
-        <v>107177766</v>
+        <v>316352770</v>
       </c>
       <c r="W15">
-        <v>700.5060799999999</v>
+        <v>832.1052599999999</v>
       </c>
       <c r="X15">
-        <v>382.4665199999999</v>
+        <v>503.5853</v>
       </c>
       <c r="Y15">
-        <v>1229.58717</v>
+        <v>3866.9563</v>
       </c>
       <c r="Z15">
-        <v>591.90309</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA15">
-        <v>720.05876</v>
+        <v>891.4318999999999</v>
       </c>
       <c r="AB15">
-        <v>756.55232</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC15">
-        <v>2662.7617</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD15">
-        <v>619.50227</v>
+        <v>891.62003</v>
       </c>
       <c r="AE15">
-        <v>941.9833599999999</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF15">
-        <v>1385.2456</v>
+        <v>2481.7286</v>
       </c>
       <c r="AG15">
-        <v>43349646</v>
+        <v>238930480</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>5722114200</v>
+        <v>22309228000</v>
       </c>
       <c r="E16">
-        <v>1.912342616E+30</v>
+        <v>3.53961263132E+38</v>
       </c>
       <c r="F16">
-        <v>93744.63499999998</v>
+        <v>106263.581</v>
       </c>
       <c r="G16">
-        <v>765.8222499999999</v>
+        <v>4349.4019</v>
       </c>
       <c r="H16">
-        <v>222.00397</v>
+        <v>314.11058</v>
       </c>
       <c r="I16">
-        <v>27.958204</v>
+        <v>56.74326799999999</v>
       </c>
       <c r="J16">
-        <v>427.82096</v>
+        <v>794.42444</v>
       </c>
       <c r="K16">
-        <v>215.46565</v>
+        <v>314.27459</v>
       </c>
       <c r="L16">
-        <v>3614.834600000001</v>
+        <v>9681.8878</v>
       </c>
       <c r="M16">
-        <v>5474.687899999999</v>
+        <v>6569.285400000001</v>
       </c>
       <c r="N16">
-        <v>1848.5759</v>
+        <v>5113.8669</v>
       </c>
       <c r="O16">
-        <v>703980750</v>
+        <v>3888985200</v>
       </c>
       <c r="P16">
-        <v>464629880</v>
+        <v>2236673300</v>
       </c>
       <c r="Q16">
-        <v>760933.49</v>
+        <v>424774.83</v>
       </c>
       <c r="R16">
-        <v>70270309</v>
+        <v>198004640</v>
       </c>
       <c r="S16">
-        <v>1787.5388</v>
+        <v>2629.1417</v>
       </c>
       <c r="T16">
-        <v>648.61319</v>
+        <v>1276.90145</v>
       </c>
       <c r="U16">
-        <v>3090770.7</v>
+        <v>10479541.2</v>
       </c>
       <c r="V16">
-        <v>101194733</v>
+        <v>297776450</v>
       </c>
       <c r="W16">
-        <v>691.27122</v>
+        <v>830.46919</v>
       </c>
       <c r="X16">
-        <v>382.02964</v>
+        <v>503.5853</v>
       </c>
       <c r="Y16">
-        <v>1229.58717</v>
+        <v>3736.8412</v>
       </c>
       <c r="Z16">
-        <v>590.49127</v>
+        <v>803.1042100000001</v>
       </c>
       <c r="AA16">
-        <v>719.2615</v>
+        <v>891.4318999999999</v>
       </c>
       <c r="AB16">
-        <v>750.2533799999999</v>
+        <v>2011.4728</v>
       </c>
       <c r="AC16">
-        <v>2636.7253</v>
+        <v>5641.4962</v>
       </c>
       <c r="AD16">
-        <v>619.50227</v>
+        <v>891.62003</v>
       </c>
       <c r="AE16">
-        <v>940.3656099999998</v>
+        <v>1674.7468</v>
       </c>
       <c r="AF16">
-        <v>1383.4523</v>
+        <v>2481.7286</v>
       </c>
       <c r="AG16">
-        <v>42454594</v>
+        <v>233754740</v>
       </c>
     </row>
   </sheetData>
